--- a/example_reports/EJEMPLO-DATOS-ASIENTOS-CONTABLES.xlsx
+++ b/example_reports/EJEMPLO-DATOS-ASIENTOS-CONTABLES.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TIPO COMPROBANTE</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>CASA MATRIX DI</t>
+  </si>
+  <si>
+    <t>NUMERACION</t>
   </si>
 </sst>
 </file>
@@ -406,11 +409,13 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="44.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
@@ -420,6 +425,9 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>

--- a/example_reports/EJEMPLO-DATOS-ASIENTOS-CONTABLES.xlsx
+++ b/example_reports/EJEMPLO-DATOS-ASIENTOS-CONTABLES.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
   <si>
     <t>TIPO COMPROBANTE</t>
   </si>
@@ -71,10 +71,49 @@
     <t>Rend. compras talleres</t>
   </si>
   <si>
-    <t>CASA MATRIX DI</t>
-  </si>
-  <si>
     <t>NUMERACION</t>
+  </si>
+  <si>
+    <t>CAJA CHICAs</t>
+  </si>
+  <si>
+    <t>CASA MATRIZ</t>
+  </si>
+  <si>
+    <t>1010101</t>
+  </si>
+  <si>
+    <t>1010102</t>
+  </si>
+  <si>
+    <t>Cta.P/Cob. Varios</t>
+  </si>
+  <si>
+    <t>Rend. petrovisa</t>
+  </si>
+  <si>
+    <t>1010103</t>
+  </si>
+  <si>
+    <t>Rend. viaje al sur</t>
+  </si>
+  <si>
+    <t>CASAs MATRIZ</t>
+  </si>
+  <si>
+    <t>1010105</t>
+  </si>
+  <si>
+    <t>1010106</t>
+  </si>
+  <si>
+    <t>1010107</t>
+  </si>
+  <si>
+    <t>1010108</t>
+  </si>
+  <si>
+    <t>1010110</t>
   </si>
 </sst>
 </file>
@@ -118,14 +157,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +454,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -461,55 +506,520 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>213221</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43102</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I2" s="3">
+        <v>963</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43102</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>963</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6">
+        <v>4</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2352.5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="6">
+        <v>963</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>963</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="6">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>4</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2352.5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6">
+        <v>10101092</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="6">
+        <v>963</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>963</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="6">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>4</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7">
+        <v>43102</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2352.5</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="3"/>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example_reports/EJEMPLO-DATOS-ASIENTOS-CONTABLES.xlsx
+++ b/example_reports/EJEMPLO-DATOS-ASIENTOS-CONTABLES.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
   <si>
     <t>TIPO COMPROBANTE</t>
   </si>
@@ -74,9 +74,6 @@
     <t>NUMERACION</t>
   </si>
   <si>
-    <t>CAJA CHICAs</t>
-  </si>
-  <si>
     <t>CASA MATRIZ</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>Rend. viaje al sur</t>
-  </si>
-  <si>
-    <t>CASAs MATRIZ</t>
   </si>
   <si>
     <t>1010105</t>
@@ -454,14 +448,14 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="44.5703125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -507,7 +501,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -516,13 +510,13 @@
         <v>43102</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>13</v>
@@ -550,16 +544,16 @@
         <v>43102</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>14</v>
@@ -584,19 +578,19 @@
         <v>43102</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="6">
         <v>4</v>
@@ -618,19 +612,19 @@
         <v>43102</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -652,19 +646,19 @@
         <v>43102</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="6">
         <v>2352.5</v>
@@ -686,13 +680,13 @@
         <v>43102</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>13</v>
@@ -720,16 +714,16 @@
         <v>43102</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>14</v>
@@ -754,19 +748,19 @@
         <v>43102</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="6">
         <v>4</v>
@@ -788,19 +782,19 @@
         <v>43102</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -822,19 +816,19 @@
         <v>43102</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="6">
         <v>2352.5</v>
@@ -856,7 +850,7 @@
         <v>43102</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>12</v>
@@ -890,16 +884,16 @@
         <v>43102</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>14</v>
@@ -924,19 +918,19 @@
         <v>43102</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="6">
         <v>4</v>
@@ -958,19 +952,19 @@
         <v>43102</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
@@ -992,19 +986,19 @@
         <v>43102</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="6">
         <v>2352.5</v>
